--- a/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
+++ b/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\realme\Others\Allocation Sheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <r>
       <rPr>
@@ -543,16 +549,85 @@
   </si>
   <si>
     <t>Date: 27-02-2021</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>C20A</t>
+  </si>
+  <si>
+    <t>C21(3/32)</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>C21(4/64)</t>
+  </si>
+  <si>
+    <t>Narzo 30A</t>
+  </si>
+  <si>
+    <t>C25(4/64)</t>
+  </si>
+  <si>
+    <t>C25(4/128)</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>Realme 8</t>
+  </si>
+  <si>
+    <t>8 Pro</t>
+  </si>
+  <si>
+    <t>Colour</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>TTL Value</t>
+  </si>
+  <si>
+    <t>Realme Allocation Amount Calculation</t>
+  </si>
+  <si>
+    <t>Distributor: Realme</t>
+  </si>
+  <si>
+    <t>Advane</t>
+  </si>
+  <si>
+    <t>Need To Deposit</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Silver</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0;###0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -661,8 +736,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,8 +757,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1015,11 +1109,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1092,6 +1258,42 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1172,6 +1374,51 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,6 +1429,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1230,7 +1480,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1262,9 +1512,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1296,6 +1547,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1471,14 +1723,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="B34" sqref="B34:C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.1640625" customWidth="1"/>
     <col min="2" max="2" width="29.1640625" customWidth="1"/>
@@ -1486,126 +1738,126 @@
     <col min="4" max="4" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1"/>
-    <row r="2" ht="42" customHeight="1"/>
-    <row r="3" ht="42" customHeight="1"/>
-    <row r="4" ht="42" customHeight="1"/>
-    <row r="5" ht="42" customHeight="1"/>
-    <row r="6" ht="45" customHeight="1"/>
-    <row r="7" ht="45" customHeight="1"/>
-    <row r="8" ht="45" customHeight="1"/>
-    <row r="9" ht="45" customHeight="1"/>
-    <row r="10" ht="45" customHeight="1"/>
-    <row r="11" ht="45" customHeight="1"/>
-    <row r="12" ht="45" customHeight="1"/>
-    <row r="13" ht="45" customHeight="1"/>
-    <row r="14" ht="45" customHeight="1"/>
-    <row r="15" ht="45" customHeight="1"/>
-    <row r="16" ht="45" customHeight="1"/>
-    <row r="17" spans="1:3" ht="45" customHeight="1"/>
-    <row r="18" spans="1:3" ht="45" customHeight="1"/>
-    <row r="19" spans="1:3" ht="45" customHeight="1"/>
-    <row r="20" spans="1:3" ht="45" customHeight="1"/>
-    <row r="21" spans="1:3" ht="45" customHeight="1"/>
-    <row r="22" spans="1:3" ht="45" customHeight="1"/>
-    <row r="23" spans="1:3" ht="45" customHeight="1"/>
-    <row r="24" spans="1:3" ht="45" customHeight="1"/>
-    <row r="25" spans="1:3" ht="45" customHeight="1"/>
-    <row r="26" spans="1:3" ht="45" customHeight="1"/>
-    <row r="27" spans="1:3" ht="45" customHeight="1"/>
-    <row r="28" spans="1:3" ht="45" customHeight="1"/>
-    <row r="29" spans="1:3" ht="45" customHeight="1"/>
-    <row r="30" spans="1:3" ht="45" customHeight="1"/>
-    <row r="31" spans="1:3" ht="23.1" customHeight="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-    </row>
-    <row r="32" spans="1:3" ht="24" customHeight="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-    </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
+    <row r="1" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+    </row>
+    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="34"/>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="B34" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="46"/>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>4</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="32"/>
-    </row>
-    <row r="36" spans="1:3" ht="24.95" customHeight="1">
+      <c r="C35" s="44"/>
+    </row>
+    <row r="36" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>5</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="24"/>
-    </row>
-    <row r="37" spans="1:3" ht="18.95" customHeight="1">
+      <c r="C36" s="36"/>
+    </row>
+    <row r="37" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="26"/>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="C37" s="38"/>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="30"/>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
+      <c r="C38" s="42"/>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="31"/>
-    </row>
-    <row r="40" spans="1:3" ht="24" customHeight="1">
+      <c r="C39" s="43"/>
+    </row>
+    <row r="40" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="32"/>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
+      <c r="C40" s="44"/>
+    </row>
+    <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="24"/>
-    </row>
-    <row r="42" spans="1:3" ht="24.95" customHeight="1">
+      <c r="C41" s="36"/>
+    </row>
+    <row r="42" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="25"/>
-    </row>
-    <row r="43" spans="1:3" ht="23.1" customHeight="1">
+      <c r="C42" s="37"/>
+    </row>
+    <row r="43" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="26"/>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
+      <c r="C43" s="38"/>
+    </row>
+    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="1" t="s">
         <v>10</v>
@@ -1614,72 +1866,72 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="24" customHeight="1">
+    <row r="45" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-    </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+    </row>
+    <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-    </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+    </row>
+    <row r="48" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-    </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+    </row>
+    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-    </row>
-    <row r="50" spans="1:3" ht="24" customHeight="1">
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+    </row>
+    <row r="50" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-    </row>
-    <row r="51" spans="1:3" ht="21.95" customHeight="1">
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+    </row>
+    <row r="51" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-    </row>
-    <row r="52" spans="1:3" ht="21.95" customHeight="1">
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+    </row>
+    <row r="52" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-    </row>
-    <row r="53" spans="1:3" ht="21.95" customHeight="1">
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+    </row>
+    <row r="53" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-    </row>
-    <row r="54" spans="1:3" ht="21.95" customHeight="1">
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+    </row>
+    <row r="54" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-    </row>
-    <row r="55" spans="1:3" ht="21.95" customHeight="1">
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+    </row>
+    <row r="55" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-    </row>
-    <row r="56" spans="1:3" ht="23.1" customHeight="1">
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+    </row>
+    <row r="56" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-    </row>
-    <row r="57" spans="1:3" ht="18.95" customHeight="1"/>
-    <row r="58" spans="1:3" ht="93" customHeight="1"/>
-    <row r="59" spans="1:3" ht="30" customHeight="1"/>
-    <row r="60" spans="1:3" ht="36" customHeight="1"/>
-    <row r="61" spans="1:3" ht="27" customHeight="1"/>
-    <row r="62" spans="1:3" ht="48" customHeight="1"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+    </row>
+    <row r="57" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A31:C31"/>
@@ -1702,14 +1954,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="15" customWidth="1"/>
     <col min="2" max="2" width="43.5" style="15" bestFit="1" customWidth="1"/>
@@ -1719,34 +1971,34 @@
     <col min="6" max="16384" width="9.33203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-    </row>
-    <row r="2" spans="1:5" ht="26.25">
-      <c r="A2" s="36" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
+    </row>
+    <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-    </row>
-    <row r="3" spans="1:5" ht="19.5">
-      <c r="A3" s="48" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-    </row>
-    <row r="4" spans="1:5" ht="17.25">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
@@ -1763,7 +2015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.25">
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>1</v>
       </c>
@@ -1779,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.25">
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>2</v>
       </c>
@@ -1795,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25">
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>3</v>
       </c>
@@ -1811,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.25">
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>4</v>
       </c>
@@ -1827,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.25">
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>5</v>
       </c>
@@ -1843,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.25">
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>6</v>
       </c>
@@ -1859,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17.25">
+    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>5</v>
       </c>
@@ -1875,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.25">
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>6.8571428571428603</v>
       </c>
@@ -1891,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17.25">
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <v>7.6428571428571397</v>
       </c>
@@ -1909,7 +2161,7 @@
         <v>283600</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17.25">
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>8.4285714285714306</v>
       </c>
@@ -1925,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17.25">
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>9.2142857142857206</v>
       </c>
@@ -1941,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17.25">
+    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <v>10</v>
       </c>
@@ -1957,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.25">
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>10.785714285714301</v>
       </c>
@@ -1975,7 +2227,7 @@
         <v>328000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.25">
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>11.5714285714286</v>
       </c>
@@ -1991,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.25">
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>12.3571428571429</v>
       </c>
@@ -2007,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17.25">
+    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>13.142857142857199</v>
       </c>
@@ -2023,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17.25">
+    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>13.9285714285715</v>
       </c>
@@ -2035,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17.25">
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <v>14.714285714285801</v>
       </c>
@@ -2047,11 +2299,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17.25">
-      <c r="A23" s="39" t="s">
+    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="40"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="12">
         <f>SUM(C5:C22)</f>
         <v>40</v>
@@ -2062,22 +2314,22 @@
         <v>611600</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17.25">
-      <c r="A24" s="41" t="s">
+    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="19"/>
     </row>
-    <row r="25" spans="1:5" ht="18" thickBot="1">
-      <c r="A25" s="43" t="s">
+    <row r="25" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="22">
         <f>E23-E24</f>
         <v>611600</v>
@@ -2096,4 +2348,401 @@
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="25" customWidth="1"/>
+    <col min="4" max="4" width="14" style="25" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="9.33203125" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="68"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27">
+        <f>D5*C5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="77"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="27">
+        <f t="shared" ref="E6:E22" si="0">D6*C6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="24">
+        <v>10070</v>
+      </c>
+      <c r="D7" s="28">
+        <v>30</v>
+      </c>
+      <c r="E7" s="27">
+        <f t="shared" si="0"/>
+        <v>302100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="64"/>
+      <c r="B8" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="24">
+        <v>10070</v>
+      </c>
+      <c r="D8" s="28">
+        <v>10</v>
+      </c>
+      <c r="E8" s="27">
+        <f t="shared" si="0"/>
+        <v>100700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="24">
+        <v>10920</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="64"/>
+      <c r="B10" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="24">
+        <v>10920</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="24">
+        <v>11940</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="64"/>
+      <c r="B12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="24">
+        <v>11940</v>
+      </c>
+      <c r="D12" s="28">
+        <v>10</v>
+      </c>
+      <c r="E12" s="27">
+        <f t="shared" si="0"/>
+        <v>119400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="24">
+        <v>12750</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="64"/>
+      <c r="B14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="24">
+        <v>12750</v>
+      </c>
+      <c r="D14" s="28">
+        <v>30</v>
+      </c>
+      <c r="E14" s="27">
+        <f t="shared" si="0"/>
+        <v>382500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="24">
+        <v>13640</v>
+      </c>
+      <c r="D15" s="28">
+        <v>30</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" si="0"/>
+        <v>409200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="64"/>
+      <c r="B16" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="24">
+        <v>13640</v>
+      </c>
+      <c r="D16" s="28">
+        <v>30</v>
+      </c>
+      <c r="E16" s="27">
+        <f t="shared" si="0"/>
+        <v>409200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="24">
+        <v>14180</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="64"/>
+      <c r="B18" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="24">
+        <v>14180</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="24">
+        <v>20640</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="64"/>
+      <c r="B20" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="24">
+        <v>20640</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="24">
+        <v>25130</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="64"/>
+      <c r="B22" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="24">
+        <v>25130</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="34">
+        <f>SUM(D5:D22)</f>
+        <v>140</v>
+      </c>
+      <c r="E23" s="35">
+        <f>SUM(E5:E22)</f>
+        <v>1723100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="32">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="33">
+        <f>E23-E24</f>
+        <v>1722010</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
+++ b/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
@@ -470,6 +470,21 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -503,12 +518,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -518,19 +527,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -840,7 +840,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -854,22 +854,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
@@ -877,20 +877,20 @@
       </c>
       <c r="B3" s="12">
         <f ca="1">TODAY()</f>
-        <v>44320</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+        <v>44322</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
@@ -910,7 +910,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -926,21 +926,23 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="11">
         <v>8290</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4">
+        <v>20</v>
+      </c>
       <c r="E7" s="3">
         <f t="shared" ref="E7:E23" si="0">D7*C7</f>
-        <v>0</v>
+        <v>165800</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -950,15 +952,15 @@
         <v>10070</v>
       </c>
       <c r="D8" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>402800</v>
+        <v>302100</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
@@ -972,7 +974,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -988,7 +990,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
@@ -1002,7 +1004,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -1018,7 +1020,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="11" t="s">
         <v>6</v>
       </c>
@@ -1032,7 +1034,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -1048,7 +1050,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="11" t="s">
         <v>6</v>
       </c>
@@ -1062,7 +1064,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -1078,7 +1080,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="11" t="s">
         <v>6</v>
       </c>
@@ -1092,7 +1094,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -1108,7 +1110,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="11" t="s">
         <v>6</v>
       </c>
@@ -1122,7 +1124,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -1138,7 +1140,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="11" t="s">
         <v>24</v>
       </c>
@@ -1152,7 +1154,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -1168,67 +1170,59 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="11">
         <v>25130</v>
       </c>
-      <c r="D23" s="4">
-        <v>10</v>
-      </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="3">
         <f t="shared" si="0"/>
-        <v>251300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="9">
         <f>SUM(D6:D23)</f>
         <v>50</v>
       </c>
       <c r="E24" s="10">
         <f>SUM(E6:E23)</f>
-        <v>654100</v>
+        <v>467900</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="8">
         <f>E24-E25</f>
-        <v>654100</v>
+        <v>467900</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1239,6 +1233,12 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
+++ b/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
@@ -424,16 +424,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -468,6 +465,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -483,54 +528,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -839,14 +836,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" style="1" customWidth="1"/>
@@ -854,375 +851,401 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <f ca="1">TODAY()</f>
-        <v>44322</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
+        <v>44333</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>8290</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3">
+      <c r="D6" s="3">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2">
         <f>D6*C6</f>
-        <v>0</v>
+        <v>165800</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>8290</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>20</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" ref="E7:E23" si="0">D7*C7</f>
         <v>165800</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>10070</v>
       </c>
-      <c r="D8" s="4">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>302100</v>
+      <c r="D8" s="3">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>201400</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>10070</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3">
+      <c r="D9" s="3">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>402800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10">
+        <v>10920</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="11" t="s">
+    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="26"/>
+      <c r="B11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10">
+        <v>10920</v>
+      </c>
+      <c r="D11" s="3">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>218400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="11">
-        <v>10920</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3">
+      <c r="C12" s="10">
+        <v>11940</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="11" t="s">
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="26"/>
+      <c r="B13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="11">
-        <v>10920</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3">
+      <c r="C13" s="10">
+        <v>11940</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="11" t="s">
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="10">
+        <v>12750</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="26"/>
+      <c r="B15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="10">
+        <v>12750</v>
+      </c>
+      <c r="D15" s="3">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>255000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="10">
+        <v>13640</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>136400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="26"/>
+      <c r="B17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="10">
+        <v>13640</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>136400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="10">
+        <v>14180</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>141800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="26"/>
+      <c r="B19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="10">
+        <v>14180</v>
+      </c>
+      <c r="D19" s="3">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>141800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="11">
-        <v>11940</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3">
+      <c r="C20" s="10">
+        <v>20640</v>
+      </c>
+      <c r="D20" s="3">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>206400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="26"/>
+      <c r="B21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="10">
+        <v>20640</v>
+      </c>
+      <c r="D21" s="3">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>206400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="10">
+        <v>25130</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="11" t="s">
+    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="26"/>
+      <c r="B23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="11">
-        <v>11940</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3">
+      <c r="C23" s="10">
+        <v>25130</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="11">
-        <v>12750</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3">
-        <f t="shared" si="0"/>
+    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="11">
-        <v>12750</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3">
-        <f t="shared" si="0"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="8">
+        <f>SUM(D6:D23)</f>
+        <v>200</v>
+      </c>
+      <c r="E24" s="9">
+        <f>SUM(E6:E23)</f>
+        <v>2378400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="11">
-        <v>13640</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="11">
-        <v>13640</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="11">
-        <v>14180</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
-      <c r="B19" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="11">
-        <v>14180</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="11">
-        <v>20640</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
-      <c r="B21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="11">
-        <v>20640</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="11">
-        <v>25130</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
-      <c r="B23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="11">
-        <v>25130</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="9">
-        <f>SUM(D6:D23)</f>
-        <v>50</v>
-      </c>
-      <c r="E24" s="10">
-        <f>SUM(E6:E23)</f>
-        <v>467900</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-    </row>
     <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="8">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="7">
         <f>E24-E25</f>
-        <v>467900</v>
+        <v>2378400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1233,12 +1256,6 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
+++ b/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
@@ -467,6 +467,27 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,12 +521,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -513,21 +528,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -851,22 +851,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
@@ -874,20 +874,20 @@
       </c>
       <c r="B3" s="11">
         <f ca="1">TODAY()</f>
-        <v>44333</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
+        <v>44335</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -907,7 +907,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -916,32 +916,30 @@
       <c r="C6" s="10">
         <v>8290</v>
       </c>
-      <c r="D6" s="3">
-        <v>20</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="2">
         <f>D6*C6</f>
-        <v>165800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="10" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C7" s="10">
         <v>8290</v>
       </c>
       <c r="D7" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ref="E7:E23" si="0">D7*C7</f>
-        <v>165800</v>
+        <v>82900</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -950,16 +948,14 @@
       <c r="C8" s="10">
         <v>10070</v>
       </c>
-      <c r="D8" s="3">
-        <v>20</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>201400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
@@ -967,15 +963,15 @@
         <v>10070</v>
       </c>
       <c r="D9" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>402800</v>
+        <v>302100</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -984,30 +980,30 @@
       <c r="C10" s="10">
         <v>10920</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>10</v>
+      </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>109200</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="10">
         <v>10920</v>
       </c>
-      <c r="D11" s="3">
-        <v>20</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>218400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1023,7 +1019,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
         <v>6</v>
       </c>
@@ -1037,7 +1033,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1046,30 +1042,30 @@
       <c r="C14" s="10">
         <v>12750</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>10</v>
+      </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>127500</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="10">
         <v>12750</v>
       </c>
-      <c r="D15" s="3">
-        <v>20</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>255000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -1078,32 +1074,28 @@
       <c r="C16" s="10">
         <v>13640</v>
       </c>
-      <c r="D16" s="3">
-        <v>10</v>
-      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>136400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="10">
         <v>13640</v>
       </c>
-      <c r="D17" s="3">
-        <v>10</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>136400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -1112,32 +1104,28 @@
       <c r="C18" s="10">
         <v>14180</v>
       </c>
-      <c r="D18" s="3">
-        <v>10</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>141800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="10">
         <v>14180</v>
       </c>
-      <c r="D19" s="3">
-        <v>10</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>141800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -1146,32 +1134,28 @@
       <c r="C20" s="10">
         <v>20640</v>
       </c>
-      <c r="D20" s="3">
-        <v>10</v>
-      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>206400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="10">
         <v>20640</v>
       </c>
-      <c r="D21" s="3">
-        <v>10</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>206400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -1187,7 +1171,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="10" t="s">
         <v>6</v>
       </c>
@@ -1201,51 +1185,45 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
+      <c r="A24" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="8">
         <f>SUM(D6:D23)</f>
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="E24" s="9">
         <f>SUM(E6:E23)</f>
-        <v>2378400</v>
+        <v>621700</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="7">
         <f>E24-E25</f>
-        <v>2378400</v>
+        <v>621700</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1256,6 +1234,12 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
+++ b/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
@@ -81,9 +81,6 @@
     <t>Distributor: Realme</t>
   </si>
   <si>
-    <t>Advane</t>
-  </si>
-  <si>
     <t>Need To Deposit</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
+  </si>
+  <si>
+    <t>Advance</t>
   </si>
 </sst>
 </file>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -870,11 +870,11 @@
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="11">
         <f ca="1">TODAY()</f>
-        <v>44335</v>
+        <v>44339</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
@@ -925,17 +925,17 @@
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="10">
         <v>8290</v>
       </c>
       <c r="D7" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ref="E7:E23" si="0">D7*C7</f>
-        <v>82900</v>
+        <v>165800</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -962,12 +962,10 @@
       <c r="C9" s="10">
         <v>10070</v>
       </c>
-      <c r="D9" s="3">
-        <v>30</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>302100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -980,12 +978,10 @@
       <c r="C10" s="10">
         <v>10920</v>
       </c>
-      <c r="D10" s="3">
-        <v>10</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>109200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -996,10 +992,12 @@
       <c r="C11" s="10">
         <v>10920</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>20</v>
+      </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>218400</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1012,10 +1010,12 @@
       <c r="C12" s="10">
         <v>11940</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>119400</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1037,7 +1037,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="10">
         <v>12750</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="10">
         <v>13640</v>
@@ -1099,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="10">
         <v>14180</v>
@@ -1118,10 +1118,12 @@
       <c r="C19" s="10">
         <v>14180</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>20</v>
+      </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>283600</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1143,15 +1145,17 @@
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="10">
         <v>20640</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>20</v>
+      </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>412800</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1178,10 +1182,12 @@
       <c r="C23" s="10">
         <v>25130</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <v>10</v>
+      </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>251300</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1192,16 +1198,16 @@
       <c r="C24" s="20"/>
       <c r="D24" s="8">
         <f>SUM(D6:D23)</f>
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="E24" s="9">
         <f>SUM(E6:E23)</f>
-        <v>621700</v>
+        <v>1578800</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="30" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
@@ -1212,14 +1218,14 @@
     </row>
     <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="7">
         <f>E24-E25</f>
-        <v>621700</v>
+        <v>1578800</v>
       </c>
     </row>
   </sheetData>

--- a/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
+++ b/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
@@ -467,18 +467,60 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -486,48 +528,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -851,22 +851,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
@@ -874,20 +874,20 @@
       </c>
       <c r="B3" s="11">
         <f ca="1">TODAY()</f>
-        <v>44339</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
+        <v>44341</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -907,7 +907,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -923,7 +923,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
@@ -939,7 +939,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -955,7 +955,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
@@ -969,7 +969,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -985,7 +985,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
@@ -1001,7 +1001,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1010,16 +1010,14 @@
       <c r="C12" s="10">
         <v>11940</v>
       </c>
-      <c r="D12" s="3">
-        <v>10</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>119400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="10" t="s">
         <v>6</v>
       </c>
@@ -1033,7 +1031,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1051,21 +1049,23 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="10">
         <v>12750</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>127500</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -1081,7 +1081,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="10" t="s">
         <v>6</v>
       </c>
@@ -1095,7 +1095,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -1111,23 +1111,21 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="10">
         <v>14180</v>
       </c>
-      <c r="D19" s="3">
-        <v>20</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>283600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -1143,23 +1141,21 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="10">
         <v>20640</v>
       </c>
-      <c r="D21" s="3">
-        <v>20</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>412800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -1175,61 +1171,65 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="10">
         <v>25130</v>
       </c>
-      <c r="D23" s="3">
-        <v>10</v>
-      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>251300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
+      <c r="A24" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="8">
         <f>SUM(D6:D23)</f>
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="E24" s="9">
         <f>SUM(E6:E23)</f>
-        <v>1578800</v>
+        <v>639200</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="7">
         <f>E24-E25</f>
-        <v>1578800</v>
+        <v>639200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1240,12 +1240,6 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
+++ b/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Total=</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Advance</t>
+  </si>
+  <si>
+    <t>Yellow</t>
   </si>
 </sst>
 </file>
@@ -179,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -420,11 +423,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -467,6 +481,27 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,10 +535,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -513,21 +545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -834,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -851,22 +868,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
@@ -874,20 +891,20 @@
       </c>
       <c r="B3" s="11">
         <f ca="1">TODAY()</f>
-        <v>44341</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
+        <v>44343</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -907,7 +924,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -923,23 +940,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="10">
         <v>8290</v>
       </c>
-      <c r="D7" s="3">
-        <v>20</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:E23" si="0">D7*C7</f>
-        <v>165800</v>
+        <f t="shared" ref="E7:E24" si="0">D7*C7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -955,7 +970,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
@@ -969,7 +984,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -985,23 +1000,21 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="10">
         <v>10920</v>
       </c>
-      <c r="D11" s="3">
-        <v>20</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>218400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1017,7 +1030,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
         <v>6</v>
       </c>
@@ -1031,7 +1044,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1040,32 +1053,28 @@
       <c r="C14" s="10">
         <v>12750</v>
       </c>
-      <c r="D14" s="3">
-        <v>10</v>
-      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>127500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="10">
         <v>12750</v>
       </c>
-      <c r="D15" s="3">
-        <v>10</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>127500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -1081,7 +1090,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>6</v>
       </c>
@@ -1095,7 +1104,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -1111,21 +1120,23 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="10">
         <v>14180</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>20</v>
+      </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>283600</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -1141,7 +1152,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1155,7 +1166,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -1171,7 +1182,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="10" t="s">
         <v>6</v>
       </c>
@@ -1179,67 +1190,75 @@
         <v>25130</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="8">
-        <f>SUM(D6:D23)</f>
-        <v>60</v>
-      </c>
-      <c r="E24" s="9">
-        <f>SUM(E6:E23)</f>
-        <v>639200</v>
+      <c r="A24" s="17"/>
+      <c r="B24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="10">
+        <v>25130</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9">
+        <f>SUM(E6:E24)</f>
+        <v>283600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
         <v>25</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>20</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
-      <c r="E26" s="7">
-        <f>E24-E25</f>
-        <v>639200</v>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="7">
+        <f>E25-E26</f>
+        <v>283600</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
+++ b/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
@@ -481,18 +481,63 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,51 +545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -868,22 +868,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
@@ -891,20 +891,20 @@
       </c>
       <c r="B3" s="11">
         <f ca="1">TODAY()</f>
-        <v>44343</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+        <v>44346</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -924,7 +924,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -940,7 +940,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
@@ -954,7 +954,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -970,7 +970,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
@@ -984,7 +984,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1000,7 +1000,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
@@ -1014,7 +1014,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1030,7 +1030,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="10" t="s">
         <v>6</v>
       </c>
@@ -1044,7 +1044,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1060,21 +1060,23 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="10">
         <v>12750</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>50</v>
+      </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>637500</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -1090,7 +1092,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="10" t="s">
         <v>6</v>
       </c>
@@ -1104,7 +1106,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -1120,23 +1122,21 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="10">
         <v>14180</v>
       </c>
-      <c r="D19" s="3">
-        <v>20</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>283600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -1152,7 +1152,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1166,7 +1166,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -1182,7 +1182,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="10" t="s">
         <v>6</v>
       </c>
@@ -1193,7 +1193,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="10" t="s">
         <v>26</v>
       </c>
@@ -1207,42 +1207,48 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9">
         <f>SUM(E6:E24)</f>
-        <v>283600</v>
+        <v>637500</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="7">
         <f>E25-E26</f>
-        <v>283600</v>
+        <v>637500</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1253,12 +1259,6 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
+++ b/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Total=</t>
   </si>
@@ -463,12 +463,6 @@
     <xf numFmtId="2" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -479,6 +473,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -538,13 +538,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -851,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -886,12 +886,12 @@
       <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44346</v>
+        <v>44350</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="29"/>
@@ -907,7 +907,7 @@
       <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -927,10 +927,10 @@
       <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>8290</v>
       </c>
       <c r="D6" s="3"/>
@@ -940,324 +940,351 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>8290</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:E24" si="0">D7*C7</f>
+        <f t="shared" ref="E7" si="0">D7*C7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8">
+        <v>8290</v>
+      </c>
+      <c r="D8" s="3">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ref="E8:E25" si="1">D8*C8</f>
+        <v>165800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10">
-        <v>10070</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>10070</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="10">
-        <v>10920</v>
+      <c r="A10" s="26"/>
+      <c r="B10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8">
+        <v>10070</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="A11" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8">
         <v>10920</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10920</v>
+      </c>
+      <c r="D12" s="3">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>218400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C13" s="8">
         <v>11940</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="10" t="s">
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>119400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="26"/>
+      <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C14" s="8">
         <v>11940</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="10">
-        <v>12750</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="8">
+        <v>12750</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C16" s="8">
         <v>12750</v>
       </c>
-      <c r="D15" s="3">
-        <v>50</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>637500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="D16" s="3">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>255000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C17" s="8">
         <v>13640</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="10" t="s">
+      <c r="D17" s="3">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>136400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="26"/>
+      <c r="B18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C18" s="8">
         <v>13640</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="D18" s="3">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>136400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="10">
-        <v>14180</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="C19" s="8">
         <v>14180</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="10">
-        <v>20640</v>
+      <c r="A20" s="26"/>
+      <c r="B20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="8">
+        <v>14180</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="A21" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="8">
         <v>20640</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="10">
-        <v>25130</v>
+      <c r="A22" s="26"/>
+      <c r="B22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="8">
+        <v>20640</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="8">
+        <v>25130</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
+      <c r="B24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C24" s="8">
         <v>25130</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="10" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="26"/>
+      <c r="B25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C25" s="8">
         <v>25130</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9">
-        <f>SUM(E6:E24)</f>
-        <v>637500</v>
+      <c r="D25" s="3"/>
+      <c r="E25" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="12">
+        <f>SUM(D6:D25)</f>
+        <v>90</v>
+      </c>
+      <c r="E26" s="13">
+        <f>SUM(E6:E25)</f>
+        <v>1031400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="7">
-        <f>E25-E26</f>
-        <v>637500</v>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="7">
+        <f>E26-E27</f>
+        <v>1031400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A25"/>
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
+++ b/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -891,7 +891,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44350</v>
+        <v>44353</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="29"/>
@@ -962,11 +962,11 @@
         <v>8290</v>
       </c>
       <c r="D8" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E25" si="1">D8*C8</f>
-        <v>165800</v>
+        <v>82900</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -993,10 +993,12 @@
       <c r="C10" s="8">
         <v>10070</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>10</v>
+      </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100700</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1009,10 +1011,12 @@
       <c r="C11" s="8">
         <v>10920</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>20</v>
+      </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>218400</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1023,12 +1027,10 @@
       <c r="C12" s="8">
         <v>10920</v>
       </c>
-      <c r="D12" s="3">
-        <v>20</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>218400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1041,12 +1043,10 @@
       <c r="C13" s="8">
         <v>11940</v>
       </c>
-      <c r="D13" s="3">
-        <v>10</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>119400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1105,12 +1105,10 @@
       <c r="C17" s="8">
         <v>13640</v>
       </c>
-      <c r="D17" s="3">
-        <v>10</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>136400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1122,11 +1120,11 @@
         <v>13640</v>
       </c>
       <c r="D18" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>136400</v>
+        <v>272800</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1169,10 +1167,12 @@
       <c r="C21" s="8">
         <v>20640</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>20</v>
+      </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>412800</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1238,11 +1238,11 @@
       <c r="C26" s="35"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E26" s="13">
         <f>SUM(E6:E25)</f>
-        <v>1031400</v>
+        <v>1342600</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1265,7 +1265,7 @@
       <c r="D28" s="32"/>
       <c r="E28" s="7">
         <f>E26-E27</f>
-        <v>1031400</v>
+        <v>1342600</v>
       </c>
     </row>
   </sheetData>

--- a/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
+++ b/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
@@ -481,6 +481,30 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,15 +538,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,21 +545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H26" sqref="G26:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -868,22 +868,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -891,20 +891,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44353</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+        <v>44356</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -924,7 +924,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -940,7 +940,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
@@ -954,7 +954,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
@@ -970,7 +970,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -979,30 +979,30 @@
       <c r="C9" s="8">
         <v>10070</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100700</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="8">
         <v>10070</v>
       </c>
-      <c r="D10" s="3">
-        <v>10</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>100700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1011,30 +1011,30 @@
       <c r="C11" s="8">
         <v>10920</v>
       </c>
-      <c r="D11" s="3">
-        <v>20</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>218400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="8">
         <v>10920</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>109200</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1050,7 +1050,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
@@ -1064,7 +1064,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -1080,7 +1080,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
@@ -1096,7 +1096,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -1112,23 +1112,21 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="8">
         <v>13640</v>
       </c>
-      <c r="D18" s="3">
-        <v>20</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>272800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1144,7 +1142,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="8" t="s">
         <v>6</v>
       </c>
@@ -1158,7 +1156,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -1167,16 +1165,14 @@
       <c r="C21" s="8">
         <v>20640</v>
       </c>
-      <c r="D21" s="3">
-        <v>20</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>412800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
@@ -1190,7 +1186,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1206,7 +1202,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="8" t="s">
         <v>6</v>
       </c>
@@ -1217,7 +1213,7 @@
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="8" t="s">
         <v>26</v>
       </c>
@@ -1231,51 +1227,45 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E26" s="13">
         <f>SUM(E6:E25)</f>
-        <v>1342600</v>
+        <v>547800</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="7">
         <f>E26-E27</f>
-        <v>1342600</v>
+        <v>547800</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1286,6 +1276,12 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
+++ b/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
@@ -854,7 +854,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H26" sqref="G26:H26"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -891,7 +891,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="34"/>
@@ -962,11 +962,11 @@
         <v>8290</v>
       </c>
       <c r="D8" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E25" si="1">D8*C8</f>
-        <v>82900</v>
+        <v>165800</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -995,10 +995,12 @@
       <c r="C10" s="8">
         <v>10070</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>10</v>
+      </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100700</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1011,10 +1013,12 @@
       <c r="C11" s="8">
         <v>10920</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>109200</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1026,11 +1030,11 @@
         <v>10920</v>
       </c>
       <c r="D12" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>109200</v>
+        <v>436800</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1088,11 +1092,11 @@
         <v>12750</v>
       </c>
       <c r="D16" s="3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>255000</v>
+        <v>765000</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1195,10 +1199,12 @@
       <c r="C23" s="8">
         <v>25130</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>125650</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1234,11 +1240,11 @@
       <c r="C26" s="21"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="E26" s="13">
         <f>SUM(E6:E25)</f>
-        <v>547800</v>
+        <v>1803850</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1261,7 +1267,7 @@
       <c r="D28" s="15"/>
       <c r="E28" s="7">
         <f>E26-E27</f>
-        <v>547800</v>
+        <v>1803850</v>
       </c>
     </row>
   </sheetData>

--- a/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
+++ b/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
@@ -481,21 +481,63 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -503,48 +545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -868,22 +868,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -891,20 +891,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44357</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+        <v>44362</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -924,7 +924,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -940,7 +940,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
@@ -954,7 +954,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
@@ -962,15 +962,15 @@
         <v>8290</v>
       </c>
       <c r="D8" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E25" si="1">D8*C8</f>
-        <v>165800</v>
+        <v>82900</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -979,32 +979,28 @@
       <c r="C9" s="8">
         <v>10070</v>
       </c>
-      <c r="D9" s="3">
-        <v>10</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>100700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="8">
         <v>10070</v>
       </c>
-      <c r="D10" s="3">
-        <v>10</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>100700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1014,31 +1010,29 @@
         <v>10920</v>
       </c>
       <c r="D11" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>109200</v>
+        <v>218400</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="8">
         <v>10920</v>
       </c>
-      <c r="D12" s="3">
-        <v>40</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>436800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1054,7 +1048,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
@@ -1068,7 +1062,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -1084,7 +1078,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
@@ -1092,15 +1086,15 @@
         <v>12750</v>
       </c>
       <c r="D16" s="3">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>765000</v>
+        <v>255000</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -1116,7 +1110,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="8" t="s">
         <v>6</v>
       </c>
@@ -1130,7 +1124,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1146,7 +1140,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="8" t="s">
         <v>6</v>
       </c>
@@ -1160,7 +1154,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -1176,7 +1170,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
@@ -1190,7 +1184,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1199,16 +1193,14 @@
       <c r="C23" s="8">
         <v>25130</v>
       </c>
-      <c r="D23" s="3">
-        <v>5</v>
-      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>125650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="8" t="s">
         <v>6</v>
       </c>
@@ -1219,7 +1211,7 @@
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="8" t="s">
         <v>26</v>
       </c>
@@ -1233,45 +1225,51 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
+      <c r="A26" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="E26" s="13">
         <f>SUM(E6:E25)</f>
-        <v>1803850</v>
+        <v>556300</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="7">
         <f>E26-E27</f>
-        <v>1803850</v>
+        <v>556300</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1282,12 +1280,6 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
+++ b/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Total=</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Yellow</t>
+  </si>
+  <si>
+    <t>Narzo 20</t>
   </si>
 </sst>
 </file>
@@ -481,6 +484,30 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,15 +541,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,21 +548,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -851,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -868,22 +871,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -891,20 +894,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44362</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+        <v>44364</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -924,7 +927,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -940,7 +943,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
@@ -954,23 +957,21 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8">
         <v>8290</v>
       </c>
-      <c r="D8" s="3">
-        <v>10</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="2">
-        <f t="shared" ref="E8:E25" si="1">D8*C8</f>
-        <v>82900</v>
+        <f t="shared" ref="E8:E27" si="1">D8*C8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -986,21 +987,23 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="8">
         <v>10070</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>10</v>
+      </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100700</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1009,37 +1012,37 @@
       <c r="C11" s="8">
         <v>10920</v>
       </c>
-      <c r="D11" s="3">
-        <v>20</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>218400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="8">
         <v>10920</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>109200</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
-        <v>8</v>
+      <c r="A13" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="8">
-        <v>11940</v>
+        <v>12870</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2">
@@ -1048,60 +1051,62 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="8">
+        <v>12870</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>64350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="8">
         <v>11940</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="8">
-        <v>12750</v>
-      </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>119400</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="8">
-        <v>12750</v>
-      </c>
-      <c r="D16" s="3">
-        <v>20</v>
-      </c>
+        <v>11940</v>
+      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>255000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
-        <v>10</v>
+      <c r="A17" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="8">
-        <v>13640</v>
+        <v>12750</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2">
@@ -1110,28 +1115,30 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="8">
+        <v>12750</v>
+      </c>
+      <c r="D18" s="3">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>191250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="8">
         <v>13640</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="8">
-        <v>14180</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2">
@@ -1140,12 +1147,12 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="8">
-        <v>14180</v>
+        <v>13640</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2">
@@ -1154,14 +1161,14 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
-        <v>12</v>
+      <c r="A21" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C21" s="8">
-        <v>20640</v>
+        <v>14180</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2">
@@ -1170,12 +1177,12 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C22" s="8">
-        <v>20640</v>
+        <v>14180</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2">
@@ -1184,14 +1191,14 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
-        <v>13</v>
+      <c r="A23" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="8">
-        <v>25130</v>
+        <v>20640</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2">
@@ -1200,20 +1207,25 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="8" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C24" s="8">
-        <v>25130</v>
+        <v>20640</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
+      <c r="A25" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="B25" s="8" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C25" s="8">
         <v>25130</v>
@@ -1225,61 +1237,87 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="12">
-        <f>SUM(D6:D25)</f>
+      <c r="A26" s="17"/>
+      <c r="B26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="8">
+        <v>25130</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="8">
+        <v>25130</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="12">
+        <f>SUM(D6:D27)</f>
         <v>50</v>
       </c>
-      <c r="E26" s="13">
-        <f>SUM(E6:E25)</f>
-        <v>556300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
+      <c r="E28" s="13">
+        <f>SUM(E6:E27)</f>
+        <v>584900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="7">
-        <f>E26-E27</f>
-        <v>556300</v>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="7">
+        <f>E28-E29</f>
+        <v>584900</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A28:D28"/>
+  <mergeCells count="17">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
+++ b/realme/Others/Allocation Sheet/realme requisition sheet.xlsx
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L27" sqref="K27:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -894,7 +894,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>44367</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="34"/>
@@ -964,10 +964,12 @@
       <c r="C8" s="8">
         <v>8290</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E27" si="1">D8*C8</f>
-        <v>0</v>
+        <v>82900</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1012,10 +1014,12 @@
       <c r="C11" s="8">
         <v>10920</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>109200</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1058,12 +1062,10 @@
       <c r="C14" s="8">
         <v>12870</v>
       </c>
-      <c r="D14" s="3">
-        <v>5</v>
-      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>64350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1092,10 +1094,12 @@
       <c r="C16" s="8">
         <v>11940</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>119400</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1108,10 +1112,12 @@
       <c r="C17" s="8">
         <v>12750</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>10</v>
+      </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>127500</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1122,12 +1128,10 @@
       <c r="C18" s="8">
         <v>12750</v>
       </c>
-      <c r="D18" s="3">
-        <v>15</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>191250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1214,10 +1218,12 @@
       <c r="C24" s="8">
         <v>20640</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <v>10</v>
+      </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>206400</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1269,11 +1275,11 @@
       <c r="C28" s="21"/>
       <c r="D28" s="12">
         <f>SUM(D6:D27)</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E28" s="13">
         <f>SUM(E6:E27)</f>
-        <v>584900</v>
+        <v>974700</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1296,7 +1302,7 @@
       <c r="D30" s="15"/>
       <c r="E30" s="7">
         <f>E28-E29</f>
-        <v>584900</v>
+        <v>974700</v>
       </c>
     </row>
   </sheetData>
